--- a/Code_jeu/maps/GenerateurMap.xlsx
+++ b/Code_jeu/maps/GenerateurMap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usherbrooke-my.sharepoint.com/personal/giff1201_usherbrooke_ca/Documents/S2/projet/Projet-S2/Code_jeu/maps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\techn\OneDrive - USherbrooke\S2\projet\Projet-S2\Code_jeu\maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{0CB93EEA-7747-49AD-9BD6-4973FBF48027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1170792-ECBD-45DE-A6BE-BBC3E3C7F231}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62028F5D-3DA3-4D75-9117-829750DF8A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BA35D6A-4D2B-43E3-A660-9236F0A02439}"/>
   </bookViews>
@@ -71,7 +71,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -395,7 +405,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AX50" sqref="A1:AX50"/>
+      <selection activeCell="BB29" sqref="BB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4337,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT26">
         <v>1</v>
@@ -8005,8 +8015,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AX50">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>0</formula>
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Code_jeu/maps/GenerateurMap.xlsx
+++ b/Code_jeu/maps/GenerateurMap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,12 +407,12 @@
       <selection activeCell="BB29" sqref="BB29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="50" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50">
       <c r="A1">
         <v>0</v>
       </c>
@@ -565,7 +564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50">
       <c r="A2">
         <v>0</v>
       </c>
@@ -717,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50">
       <c r="A3">
         <v>0</v>
       </c>
@@ -869,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1021,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1173,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1325,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1477,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1629,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1781,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1933,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50">
       <c r="A11">
         <v>0</v>
       </c>
@@ -2085,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2237,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50">
       <c r="A13">
         <v>0</v>
       </c>
@@ -2389,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2541,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2693,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50">
       <c r="A16">
         <v>0</v>
       </c>
@@ -2845,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50">
       <c r="A17">
         <v>0</v>
       </c>
@@ -2997,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50">
       <c r="A18">
         <v>0</v>
       </c>
@@ -3149,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50">
       <c r="A19">
         <v>0</v>
       </c>
@@ -3301,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50">
       <c r="A20">
         <v>0</v>
       </c>
@@ -3453,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50">
       <c r="A21">
         <v>0</v>
       </c>
@@ -3605,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50">
       <c r="A22">
         <v>0</v>
       </c>
@@ -3757,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50">
       <c r="A23">
         <v>0</v>
       </c>
@@ -3909,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50">
       <c r="A24">
         <v>0</v>
       </c>
@@ -4061,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50">
       <c r="A25">
         <v>0</v>
       </c>
@@ -4213,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50">
       <c r="A26">
         <v>0</v>
       </c>
@@ -4365,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50">
       <c r="A27">
         <v>0</v>
       </c>
@@ -4517,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50">
       <c r="A28">
         <v>0</v>
       </c>
@@ -4669,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50">
       <c r="A29">
         <v>0</v>
       </c>
@@ -4821,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50">
       <c r="A30">
         <v>0</v>
       </c>
@@ -4973,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50">
       <c r="A31">
         <v>0</v>
       </c>
@@ -5125,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50">
       <c r="A32">
         <v>0</v>
       </c>
@@ -5277,7 +5276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50">
       <c r="A33">
         <v>0</v>
       </c>
@@ -5429,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50">
       <c r="A34">
         <v>0</v>
       </c>
@@ -5581,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50">
       <c r="A35">
         <v>0</v>
       </c>
@@ -5733,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50">
       <c r="A36">
         <v>0</v>
       </c>
@@ -5885,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50">
       <c r="A37">
         <v>0</v>
       </c>
@@ -6037,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50">
       <c r="A38">
         <v>0</v>
       </c>
@@ -6189,7 +6188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50">
       <c r="A39">
         <v>0</v>
       </c>
@@ -6341,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50">
       <c r="A40">
         <v>0</v>
       </c>
@@ -6493,7 +6492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50">
       <c r="A41">
         <v>0</v>
       </c>
@@ -6645,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50">
       <c r="A42">
         <v>0</v>
       </c>
@@ -6797,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50">
       <c r="A43">
         <v>0</v>
       </c>
@@ -6949,7 +6948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50">
       <c r="A44">
         <v>0</v>
       </c>
@@ -7101,7 +7100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50">
       <c r="A45">
         <v>0</v>
       </c>
@@ -7253,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50">
       <c r="A46">
         <v>0</v>
       </c>
@@ -7405,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50">
       <c r="A47">
         <v>0</v>
       </c>
@@ -7557,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50">
       <c r="A48">
         <v>0</v>
       </c>
@@ -7709,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50">
       <c r="A49">
         <v>0</v>
       </c>
@@ -7861,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50">
       <c r="A50">
         <v>0</v>
       </c>

--- a/Code_jeu/maps/GenerateurMap.xlsx
+++ b/Code_jeu/maps/GenerateurMap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\techn\OneDrive - USherbrooke\S2\projet\Projet-S2\Code_jeu\maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usherbrooke-my.sharepoint.com/personal/giff1201_usherbrooke_ca/Documents/S2/projet/Projet-S2/Code_jeu/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62028F5D-3DA3-4D75-9117-829750DF8A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{62028F5D-3DA3-4D75-9117-829750DF8A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7A5883B-53D1-4075-BC83-7EE1349C05B0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BA35D6A-4D2B-43E3-A660-9236F0A02439}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,18 +401,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D037A9-288C-4267-8598-EA8214738A45}">
-  <dimension ref="A1:AX50"/>
+  <dimension ref="A1:CB50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BB29" sqref="BB29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CD25" sqref="CD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="50" width="2.7109375" customWidth="1"/>
+    <col min="1" max="80" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -563,8 +563,98 @@
       <c r="AX1">
         <v>0</v>
       </c>
+      <c r="AY1">
+        <v>0</v>
+      </c>
+      <c r="AZ1">
+        <v>0</v>
+      </c>
+      <c r="BA1">
+        <v>0</v>
+      </c>
+      <c r="BB1">
+        <v>0</v>
+      </c>
+      <c r="BC1">
+        <v>0</v>
+      </c>
+      <c r="BD1">
+        <v>0</v>
+      </c>
+      <c r="BE1">
+        <v>0</v>
+      </c>
+      <c r="BF1">
+        <v>0</v>
+      </c>
+      <c r="BG1">
+        <v>0</v>
+      </c>
+      <c r="BH1">
+        <v>0</v>
+      </c>
+      <c r="BI1">
+        <v>0</v>
+      </c>
+      <c r="BJ1">
+        <v>0</v>
+      </c>
+      <c r="BK1">
+        <v>0</v>
+      </c>
+      <c r="BL1">
+        <v>0</v>
+      </c>
+      <c r="BM1">
+        <v>0</v>
+      </c>
+      <c r="BN1">
+        <v>0</v>
+      </c>
+      <c r="BO1">
+        <v>0</v>
+      </c>
+      <c r="BP1">
+        <v>0</v>
+      </c>
+      <c r="BQ1">
+        <v>0</v>
+      </c>
+      <c r="BR1">
+        <v>0</v>
+      </c>
+      <c r="BS1">
+        <v>0</v>
+      </c>
+      <c r="BT1">
+        <v>0</v>
+      </c>
+      <c r="BU1">
+        <v>0</v>
+      </c>
+      <c r="BV1">
+        <v>0</v>
+      </c>
+      <c r="BW1">
+        <v>0</v>
+      </c>
+      <c r="BX1">
+        <v>0</v>
+      </c>
+      <c r="BY1">
+        <v>0</v>
+      </c>
+      <c r="BZ1">
+        <v>0</v>
+      </c>
+      <c r="CA1">
+        <v>0</v>
+      </c>
+      <c r="CB1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -695,28 +785,118 @@
         <v>1</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2">
+        <v>1</v>
+      </c>
+      <c r="BJ2">
+        <v>1</v>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>1</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
+        <v>1</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -850,25 +1030,115 @@
         <v>1</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>1</v>
+      </c>
+      <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
+      <c r="BC3">
+        <v>1</v>
+      </c>
+      <c r="BD3">
+        <v>1</v>
+      </c>
+      <c r="BE3">
+        <v>1</v>
+      </c>
+      <c r="BF3">
+        <v>1</v>
+      </c>
+      <c r="BG3">
+        <v>1</v>
+      </c>
+      <c r="BH3">
+        <v>1</v>
+      </c>
+      <c r="BI3">
+        <v>1</v>
+      </c>
+      <c r="BJ3">
+        <v>1</v>
+      </c>
+      <c r="BK3">
+        <v>1</v>
+      </c>
+      <c r="BL3">
+        <v>1</v>
+      </c>
+      <c r="BM3">
+        <v>1</v>
+      </c>
+      <c r="BN3">
+        <v>1</v>
+      </c>
+      <c r="BO3">
+        <v>1</v>
+      </c>
+      <c r="BP3">
+        <v>1</v>
+      </c>
+      <c r="BQ3">
+        <v>1</v>
+      </c>
+      <c r="BR3">
+        <v>1</v>
+      </c>
+      <c r="BS3">
+        <v>1</v>
+      </c>
+      <c r="BT3">
+        <v>1</v>
+      </c>
+      <c r="BU3">
+        <v>1</v>
+      </c>
+      <c r="BV3">
+        <v>1</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1005,22 +1275,112 @@
         <v>1</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
+      <c r="BC4">
+        <v>1</v>
+      </c>
+      <c r="BD4">
+        <v>1</v>
+      </c>
+      <c r="BE4">
+        <v>1</v>
+      </c>
+      <c r="BF4">
+        <v>1</v>
+      </c>
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>1</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="BJ4">
+        <v>1</v>
+      </c>
+      <c r="BK4">
+        <v>1</v>
+      </c>
+      <c r="BL4">
+        <v>1</v>
+      </c>
+      <c r="BM4">
+        <v>1</v>
+      </c>
+      <c r="BN4">
+        <v>1</v>
+      </c>
+      <c r="BO4">
+        <v>1</v>
+      </c>
+      <c r="BP4">
+        <v>1</v>
+      </c>
+      <c r="BQ4">
+        <v>1</v>
+      </c>
+      <c r="BR4">
+        <v>1</v>
+      </c>
+      <c r="BS4">
+        <v>1</v>
+      </c>
+      <c r="BT4">
+        <v>1</v>
+      </c>
+      <c r="BU4">
+        <v>1</v>
+      </c>
+      <c r="BV4">
+        <v>1</v>
+      </c>
+      <c r="BW4">
+        <v>1</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1049,103 +1409,103 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -1160,19 +1520,109 @@
         <v>1</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="BB5">
+        <v>1</v>
+      </c>
+      <c r="BC5">
+        <v>1</v>
+      </c>
+      <c r="BD5">
+        <v>1</v>
+      </c>
+      <c r="BE5">
+        <v>1</v>
+      </c>
+      <c r="BF5">
+        <v>1</v>
+      </c>
+      <c r="BG5">
+        <v>1</v>
+      </c>
+      <c r="BH5">
+        <v>1</v>
+      </c>
+      <c r="BI5">
+        <v>1</v>
+      </c>
+      <c r="BJ5">
+        <v>1</v>
+      </c>
+      <c r="BK5">
+        <v>1</v>
+      </c>
+      <c r="BL5">
+        <v>1</v>
+      </c>
+      <c r="BM5">
+        <v>1</v>
+      </c>
+      <c r="BN5">
+        <v>1</v>
+      </c>
+      <c r="BO5">
+        <v>1</v>
+      </c>
+      <c r="BP5">
+        <v>1</v>
+      </c>
+      <c r="BQ5">
+        <v>1</v>
+      </c>
+      <c r="BR5">
+        <v>1</v>
+      </c>
+      <c r="BS5">
+        <v>1</v>
+      </c>
+      <c r="BT5">
+        <v>1</v>
+      </c>
+      <c r="BU5">
+        <v>1</v>
+      </c>
+      <c r="BV5">
+        <v>1</v>
+      </c>
+      <c r="BW5">
+        <v>1</v>
+      </c>
+      <c r="BX5">
+        <v>1</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1186,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1198,109 +1648,109 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>1</v>
@@ -1312,19 +1762,109 @@
         <v>1</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX6">
+        <v>1</v>
+      </c>
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
+        <v>1</v>
+      </c>
+      <c r="BB6">
+        <v>1</v>
+      </c>
+      <c r="BC6">
+        <v>1</v>
+      </c>
+      <c r="BD6">
+        <v>1</v>
+      </c>
+      <c r="BE6">
+        <v>1</v>
+      </c>
+      <c r="BF6">
+        <v>1</v>
+      </c>
+      <c r="BG6">
+        <v>1</v>
+      </c>
+      <c r="BH6">
+        <v>1</v>
+      </c>
+      <c r="BI6">
+        <v>1</v>
+      </c>
+      <c r="BJ6">
+        <v>1</v>
+      </c>
+      <c r="BK6">
+        <v>1</v>
+      </c>
+      <c r="BL6">
+        <v>1</v>
+      </c>
+      <c r="BM6">
+        <v>1</v>
+      </c>
+      <c r="BN6">
+        <v>1</v>
+      </c>
+      <c r="BO6">
+        <v>1</v>
+      </c>
+      <c r="BP6">
+        <v>1</v>
+      </c>
+      <c r="BQ6">
+        <v>1</v>
+      </c>
+      <c r="BR6">
+        <v>1</v>
+      </c>
+      <c r="BS6">
+        <v>1</v>
+      </c>
+      <c r="BT6">
+        <v>1</v>
+      </c>
+      <c r="BU6">
+        <v>1</v>
+      </c>
+      <c r="BV6">
+        <v>1</v>
+      </c>
+      <c r="BW6">
+        <v>1</v>
+      </c>
+      <c r="BX6">
+        <v>1</v>
+      </c>
+      <c r="BY6">
+        <v>1</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1338,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1350,109 +1890,109 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>1</v>
@@ -1464,19 +2004,109 @@
         <v>1</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>1</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BC7">
+        <v>1</v>
+      </c>
+      <c r="BD7">
+        <v>1</v>
+      </c>
+      <c r="BE7">
+        <v>1</v>
+      </c>
+      <c r="BF7">
+        <v>1</v>
+      </c>
+      <c r="BG7">
+        <v>1</v>
+      </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BI7">
+        <v>1</v>
+      </c>
+      <c r="BJ7">
+        <v>1</v>
+      </c>
+      <c r="BK7">
+        <v>1</v>
+      </c>
+      <c r="BL7">
+        <v>1</v>
+      </c>
+      <c r="BM7">
+        <v>1</v>
+      </c>
+      <c r="BN7">
+        <v>1</v>
+      </c>
+      <c r="BO7">
+        <v>1</v>
+      </c>
+      <c r="BP7">
+        <v>1</v>
+      </c>
+      <c r="BQ7">
+        <v>1</v>
+      </c>
+      <c r="BR7">
+        <v>1</v>
+      </c>
+      <c r="BS7">
+        <v>1</v>
+      </c>
+      <c r="BT7">
+        <v>1</v>
+      </c>
+      <c r="BU7">
+        <v>1</v>
+      </c>
+      <c r="BV7">
+        <v>1</v>
+      </c>
+      <c r="BW7">
+        <v>1</v>
+      </c>
+      <c r="BX7">
+        <v>1</v>
+      </c>
+      <c r="BY7">
+        <v>1</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1490,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1502,16 +2132,16 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1607,13 +2237,13 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -1627,8 +2257,98 @@
       <c r="AX8">
         <v>0</v>
       </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>1</v>
+      </c>
+      <c r="BS8">
+        <v>1</v>
+      </c>
+      <c r="BT8">
+        <v>1</v>
+      </c>
+      <c r="BU8">
+        <v>1</v>
+      </c>
+      <c r="BV8">
+        <v>1</v>
+      </c>
+      <c r="BW8">
+        <v>1</v>
+      </c>
+      <c r="BX8">
+        <v>1</v>
+      </c>
+      <c r="BY8">
+        <v>1</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1642,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1654,13 +2374,13 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1759,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -1779,8 +2499,98 @@
       <c r="AX9">
         <v>0</v>
       </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>1</v>
+      </c>
+      <c r="BT9">
+        <v>1</v>
+      </c>
+      <c r="BU9">
+        <v>1</v>
+      </c>
+      <c r="BV9">
+        <v>1</v>
+      </c>
+      <c r="BW9">
+        <v>1</v>
+      </c>
+      <c r="BX9">
+        <v>1</v>
+      </c>
+      <c r="BY9">
+        <v>1</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1794,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1806,13 +2616,13 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1911,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -1931,8 +2741,98 @@
       <c r="AX10">
         <v>0</v>
       </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>1</v>
+      </c>
+      <c r="BT10">
+        <v>1</v>
+      </c>
+      <c r="BU10">
+        <v>1</v>
+      </c>
+      <c r="BV10">
+        <v>1</v>
+      </c>
+      <c r="BW10">
+        <v>1</v>
+      </c>
+      <c r="BX10">
+        <v>1</v>
+      </c>
+      <c r="BY10">
+        <v>1</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1946,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1958,13 +2858,13 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2063,13 +2963,13 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -2083,8 +2983,98 @@
       <c r="AX11">
         <v>0</v>
       </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>1</v>
+      </c>
+      <c r="BT11">
+        <v>1</v>
+      </c>
+      <c r="BU11">
+        <v>1</v>
+      </c>
+      <c r="BV11">
+        <v>1</v>
+      </c>
+      <c r="BW11">
+        <v>1</v>
+      </c>
+      <c r="BX11">
+        <v>1</v>
+      </c>
+      <c r="BY11">
+        <v>1</v>
+      </c>
+      <c r="BZ11">
+        <v>0</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2098,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2110,13 +3100,13 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2215,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -2235,8 +3225,98 @@
       <c r="AX12">
         <v>0</v>
       </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
+        <v>1</v>
+      </c>
+      <c r="BT12">
+        <v>1</v>
+      </c>
+      <c r="BU12">
+        <v>1</v>
+      </c>
+      <c r="BV12">
+        <v>1</v>
+      </c>
+      <c r="BW12">
+        <v>1</v>
+      </c>
+      <c r="BX12">
+        <v>1</v>
+      </c>
+      <c r="BY12">
+        <v>1</v>
+      </c>
+      <c r="BZ12">
+        <v>0</v>
+      </c>
+      <c r="CA12">
+        <v>0</v>
+      </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -2250,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2262,13 +3342,13 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2367,13 +3447,13 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -2387,8 +3467,98 @@
       <c r="AX13">
         <v>0</v>
       </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>1</v>
+      </c>
+      <c r="BT13">
+        <v>1</v>
+      </c>
+      <c r="BU13">
+        <v>1</v>
+      </c>
+      <c r="BV13">
+        <v>1</v>
+      </c>
+      <c r="BW13">
+        <v>1</v>
+      </c>
+      <c r="BX13">
+        <v>1</v>
+      </c>
+      <c r="BY13">
+        <v>1</v>
+      </c>
+      <c r="BZ13">
+        <v>0</v>
+      </c>
+      <c r="CA13">
+        <v>0</v>
+      </c>
+      <c r="CB13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2402,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2414,13 +3584,13 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2519,13 +3689,13 @@
         <v>0</v>
       </c>
       <c r="AR14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -2539,8 +3709,98 @@
       <c r="AX14">
         <v>0</v>
       </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
+      <c r="BR14">
+        <v>0</v>
+      </c>
+      <c r="BS14">
+        <v>1</v>
+      </c>
+      <c r="BT14">
+        <v>1</v>
+      </c>
+      <c r="BU14">
+        <v>1</v>
+      </c>
+      <c r="BV14">
+        <v>1</v>
+      </c>
+      <c r="BW14">
+        <v>1</v>
+      </c>
+      <c r="BX14">
+        <v>1</v>
+      </c>
+      <c r="BY14">
+        <v>1</v>
+      </c>
+      <c r="BZ14">
+        <v>0</v>
+      </c>
+      <c r="CA14">
+        <v>0</v>
+      </c>
+      <c r="CB14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2554,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2566,13 +3826,13 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2671,13 +3931,13 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -2691,8 +3951,98 @@
       <c r="AX15">
         <v>0</v>
       </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>0</v>
+      </c>
+      <c r="BR15">
+        <v>0</v>
+      </c>
+      <c r="BS15">
+        <v>1</v>
+      </c>
+      <c r="BT15">
+        <v>1</v>
+      </c>
+      <c r="BU15">
+        <v>1</v>
+      </c>
+      <c r="BV15">
+        <v>1</v>
+      </c>
+      <c r="BW15">
+        <v>1</v>
+      </c>
+      <c r="BX15">
+        <v>1</v>
+      </c>
+      <c r="BY15">
+        <v>1</v>
+      </c>
+      <c r="BZ15">
+        <v>0</v>
+      </c>
+      <c r="CA15">
+        <v>0</v>
+      </c>
+      <c r="CB15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -2706,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2718,13 +4068,13 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2823,13 +4173,13 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -2843,8 +4193,98 @@
       <c r="AX16">
         <v>0</v>
       </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>0</v>
+      </c>
+      <c r="BR16">
+        <v>0</v>
+      </c>
+      <c r="BS16">
+        <v>1</v>
+      </c>
+      <c r="BT16">
+        <v>1</v>
+      </c>
+      <c r="BU16">
+        <v>1</v>
+      </c>
+      <c r="BV16">
+        <v>1</v>
+      </c>
+      <c r="BW16">
+        <v>1</v>
+      </c>
+      <c r="BX16">
+        <v>1</v>
+      </c>
+      <c r="BY16">
+        <v>1</v>
+      </c>
+      <c r="BZ16">
+        <v>0</v>
+      </c>
+      <c r="CA16">
+        <v>0</v>
+      </c>
+      <c r="CB16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -2858,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2870,13 +4310,13 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2975,13 +4415,13 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -2995,8 +4435,98 @@
       <c r="AX17">
         <v>0</v>
       </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>0</v>
+      </c>
+      <c r="BR17">
+        <v>0</v>
+      </c>
+      <c r="BS17">
+        <v>1</v>
+      </c>
+      <c r="BT17">
+        <v>1</v>
+      </c>
+      <c r="BU17">
+        <v>1</v>
+      </c>
+      <c r="BV17">
+        <v>1</v>
+      </c>
+      <c r="BW17">
+        <v>1</v>
+      </c>
+      <c r="BX17">
+        <v>1</v>
+      </c>
+      <c r="BY17">
+        <v>1</v>
+      </c>
+      <c r="BZ17">
+        <v>0</v>
+      </c>
+      <c r="CA17">
+        <v>0</v>
+      </c>
+      <c r="CB17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:50">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -3010,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -3022,13 +4552,13 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -3127,13 +4657,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -3147,8 +4677,98 @@
       <c r="AX18">
         <v>0</v>
       </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18">
+        <v>0</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <v>0</v>
+      </c>
+      <c r="BQ18">
+        <v>0</v>
+      </c>
+      <c r="BR18">
+        <v>0</v>
+      </c>
+      <c r="BS18">
+        <v>1</v>
+      </c>
+      <c r="BT18">
+        <v>1</v>
+      </c>
+      <c r="BU18">
+        <v>1</v>
+      </c>
+      <c r="BV18">
+        <v>1</v>
+      </c>
+      <c r="BW18">
+        <v>1</v>
+      </c>
+      <c r="BX18">
+        <v>1</v>
+      </c>
+      <c r="BY18">
+        <v>1</v>
+      </c>
+      <c r="BZ18">
+        <v>0</v>
+      </c>
+      <c r="CA18">
+        <v>0</v>
+      </c>
+      <c r="CB18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:50">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -3162,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -3174,13 +4794,13 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -3279,13 +4899,13 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -3299,8 +4919,98 @@
       <c r="AX19">
         <v>0</v>
       </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
+        <v>0</v>
+      </c>
+      <c r="BQ19">
+        <v>0</v>
+      </c>
+      <c r="BR19">
+        <v>0</v>
+      </c>
+      <c r="BS19">
+        <v>1</v>
+      </c>
+      <c r="BT19">
+        <v>1</v>
+      </c>
+      <c r="BU19">
+        <v>1</v>
+      </c>
+      <c r="BV19">
+        <v>1</v>
+      </c>
+      <c r="BW19">
+        <v>1</v>
+      </c>
+      <c r="BX19">
+        <v>1</v>
+      </c>
+      <c r="BY19">
+        <v>1</v>
+      </c>
+      <c r="BZ19">
+        <v>0</v>
+      </c>
+      <c r="CA19">
+        <v>0</v>
+      </c>
+      <c r="CB19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:50">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -3314,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -3326,13 +5036,13 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -3431,13 +5141,13 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -3451,8 +5161,98 @@
       <c r="AX20">
         <v>0</v>
       </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>0</v>
+      </c>
+      <c r="BR20">
+        <v>0</v>
+      </c>
+      <c r="BS20">
+        <v>1</v>
+      </c>
+      <c r="BT20">
+        <v>1</v>
+      </c>
+      <c r="BU20">
+        <v>1</v>
+      </c>
+      <c r="BV20">
+        <v>1</v>
+      </c>
+      <c r="BW20">
+        <v>1</v>
+      </c>
+      <c r="BX20">
+        <v>1</v>
+      </c>
+      <c r="BY20">
+        <v>1</v>
+      </c>
+      <c r="BZ20">
+        <v>0</v>
+      </c>
+      <c r="CA20">
+        <v>0</v>
+      </c>
+      <c r="CB20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:50">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -3466,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -3478,13 +5278,13 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -3583,13 +5383,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -3603,8 +5403,98 @@
       <c r="AX21">
         <v>0</v>
       </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>0</v>
+      </c>
+      <c r="BR21">
+        <v>0</v>
+      </c>
+      <c r="BS21">
+        <v>1</v>
+      </c>
+      <c r="BT21">
+        <v>1</v>
+      </c>
+      <c r="BU21">
+        <v>1</v>
+      </c>
+      <c r="BV21">
+        <v>1</v>
+      </c>
+      <c r="BW21">
+        <v>1</v>
+      </c>
+      <c r="BX21">
+        <v>1</v>
+      </c>
+      <c r="BY21">
+        <v>1</v>
+      </c>
+      <c r="BZ21">
+        <v>0</v>
+      </c>
+      <c r="CA21">
+        <v>0</v>
+      </c>
+      <c r="CB21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:50">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -3618,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -3630,13 +5520,13 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -3735,13 +5625,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -3755,8 +5645,98 @@
       <c r="AX22">
         <v>0</v>
       </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>0</v>
+      </c>
+      <c r="BL22">
+        <v>0</v>
+      </c>
+      <c r="BM22">
+        <v>0</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22">
+        <v>0</v>
+      </c>
+      <c r="BP22">
+        <v>0</v>
+      </c>
+      <c r="BQ22">
+        <v>0</v>
+      </c>
+      <c r="BR22">
+        <v>0</v>
+      </c>
+      <c r="BS22">
+        <v>1</v>
+      </c>
+      <c r="BT22">
+        <v>1</v>
+      </c>
+      <c r="BU22">
+        <v>1</v>
+      </c>
+      <c r="BV22">
+        <v>1</v>
+      </c>
+      <c r="BW22">
+        <v>1</v>
+      </c>
+      <c r="BX22">
+        <v>1</v>
+      </c>
+      <c r="BY22">
+        <v>1</v>
+      </c>
+      <c r="BZ22">
+        <v>0</v>
+      </c>
+      <c r="CA22">
+        <v>0</v>
+      </c>
+      <c r="CB22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:50">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -3770,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -3782,13 +5762,13 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -3887,13 +5867,13 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -3907,8 +5887,98 @@
       <c r="AX23">
         <v>0</v>
       </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <v>0</v>
+      </c>
+      <c r="BM23">
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23">
+        <v>0</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <v>0</v>
+      </c>
+      <c r="BR23">
+        <v>0</v>
+      </c>
+      <c r="BS23">
+        <v>1</v>
+      </c>
+      <c r="BT23">
+        <v>1</v>
+      </c>
+      <c r="BU23">
+        <v>1</v>
+      </c>
+      <c r="BV23">
+        <v>1</v>
+      </c>
+      <c r="BW23">
+        <v>1</v>
+      </c>
+      <c r="BX23">
+        <v>1</v>
+      </c>
+      <c r="BY23">
+        <v>1</v>
+      </c>
+      <c r="BZ23">
+        <v>0</v>
+      </c>
+      <c r="CA23">
+        <v>0</v>
+      </c>
+      <c r="CB23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:50">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -3922,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -3934,13 +6004,13 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -4039,13 +6109,13 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -4059,8 +6129,98 @@
       <c r="AX24">
         <v>0</v>
       </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>0</v>
+      </c>
+      <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
+        <v>0</v>
+      </c>
+      <c r="BL24">
+        <v>0</v>
+      </c>
+      <c r="BM24">
+        <v>0</v>
+      </c>
+      <c r="BN24">
+        <v>0</v>
+      </c>
+      <c r="BO24">
+        <v>0</v>
+      </c>
+      <c r="BP24">
+        <v>0</v>
+      </c>
+      <c r="BQ24">
+        <v>0</v>
+      </c>
+      <c r="BR24">
+        <v>0</v>
+      </c>
+      <c r="BS24">
+        <v>1</v>
+      </c>
+      <c r="BT24">
+        <v>1</v>
+      </c>
+      <c r="BU24">
+        <v>1</v>
+      </c>
+      <c r="BV24">
+        <v>1</v>
+      </c>
+      <c r="BW24">
+        <v>1</v>
+      </c>
+      <c r="BX24">
+        <v>1</v>
+      </c>
+      <c r="BY24">
+        <v>1</v>
+      </c>
+      <c r="BZ24">
+        <v>0</v>
+      </c>
+      <c r="CA24">
+        <v>0</v>
+      </c>
+      <c r="CB24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:50">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -4074,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -4086,13 +6246,13 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -4191,13 +6351,13 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -4211,8 +6371,98 @@
       <c r="AX25">
         <v>0</v>
       </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+      <c r="BI25">
+        <v>0</v>
+      </c>
+      <c r="BJ25">
+        <v>0</v>
+      </c>
+      <c r="BK25">
+        <v>0</v>
+      </c>
+      <c r="BL25">
+        <v>0</v>
+      </c>
+      <c r="BM25">
+        <v>0</v>
+      </c>
+      <c r="BN25">
+        <v>0</v>
+      </c>
+      <c r="BO25">
+        <v>0</v>
+      </c>
+      <c r="BP25">
+        <v>0</v>
+      </c>
+      <c r="BQ25">
+        <v>0</v>
+      </c>
+      <c r="BR25">
+        <v>0</v>
+      </c>
+      <c r="BS25">
+        <v>1</v>
+      </c>
+      <c r="BT25">
+        <v>1</v>
+      </c>
+      <c r="BU25">
+        <v>1</v>
+      </c>
+      <c r="BV25">
+        <v>1</v>
+      </c>
+      <c r="BW25">
+        <v>1</v>
+      </c>
+      <c r="BX25">
+        <v>1</v>
+      </c>
+      <c r="BY25">
+        <v>1</v>
+      </c>
+      <c r="BZ25">
+        <v>0</v>
+      </c>
+      <c r="CA25">
+        <v>0</v>
+      </c>
+      <c r="CB25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:50">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -4226,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -4238,13 +6488,13 @@
         <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -4343,28 +6593,118 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+      <c r="BI26">
+        <v>0</v>
+      </c>
+      <c r="BJ26">
+        <v>0</v>
+      </c>
+      <c r="BK26">
+        <v>0</v>
+      </c>
+      <c r="BL26">
+        <v>0</v>
+      </c>
+      <c r="BM26">
+        <v>0</v>
+      </c>
+      <c r="BN26">
+        <v>0</v>
+      </c>
+      <c r="BO26">
+        <v>0</v>
+      </c>
+      <c r="BP26">
+        <v>0</v>
+      </c>
+      <c r="BQ26">
+        <v>0</v>
+      </c>
+      <c r="BR26">
+        <v>0</v>
+      </c>
+      <c r="BS26">
+        <v>1</v>
+      </c>
+      <c r="BT26">
+        <v>1</v>
+      </c>
+      <c r="BU26">
+        <v>1</v>
+      </c>
+      <c r="BV26">
         <v>3</v>
       </c>
-      <c r="AT26">
-        <v>1</v>
-      </c>
-      <c r="AU26">
-        <v>0</v>
-      </c>
-      <c r="AV26">
-        <v>0</v>
-      </c>
-      <c r="AW26">
-        <v>0</v>
-      </c>
-      <c r="AX26">
+      <c r="BW26">
+        <v>1</v>
+      </c>
+      <c r="BX26">
+        <v>1</v>
+      </c>
+      <c r="BY26">
+        <v>1</v>
+      </c>
+      <c r="BZ26">
+        <v>0</v>
+      </c>
+      <c r="CA26">
+        <v>0</v>
+      </c>
+      <c r="CB26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:50">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -4378,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -4390,13 +6730,13 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -4495,13 +6835,13 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -4515,8 +6855,98 @@
       <c r="AX27">
         <v>0</v>
       </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <v>0</v>
+      </c>
+      <c r="BK27">
+        <v>0</v>
+      </c>
+      <c r="BL27">
+        <v>0</v>
+      </c>
+      <c r="BM27">
+        <v>0</v>
+      </c>
+      <c r="BN27">
+        <v>0</v>
+      </c>
+      <c r="BO27">
+        <v>0</v>
+      </c>
+      <c r="BP27">
+        <v>0</v>
+      </c>
+      <c r="BQ27">
+        <v>0</v>
+      </c>
+      <c r="BR27">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>1</v>
+      </c>
+      <c r="BT27">
+        <v>1</v>
+      </c>
+      <c r="BU27">
+        <v>1</v>
+      </c>
+      <c r="BV27">
+        <v>1</v>
+      </c>
+      <c r="BW27">
+        <v>1</v>
+      </c>
+      <c r="BX27">
+        <v>1</v>
+      </c>
+      <c r="BY27">
+        <v>1</v>
+      </c>
+      <c r="BZ27">
+        <v>0</v>
+      </c>
+      <c r="CA27">
+        <v>0</v>
+      </c>
+      <c r="CB27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:50">
+    <row r="28" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -4530,7 +6960,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -4542,13 +6972,13 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -4647,13 +7077,13 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -4667,8 +7097,98 @@
       <c r="AX28">
         <v>0</v>
       </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <v>0</v>
+      </c>
+      <c r="BI28">
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>0</v>
+      </c>
+      <c r="BL28">
+        <v>0</v>
+      </c>
+      <c r="BM28">
+        <v>0</v>
+      </c>
+      <c r="BN28">
+        <v>0</v>
+      </c>
+      <c r="BO28">
+        <v>0</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
+      </c>
+      <c r="BQ28">
+        <v>0</v>
+      </c>
+      <c r="BR28">
+        <v>0</v>
+      </c>
+      <c r="BS28">
+        <v>1</v>
+      </c>
+      <c r="BT28">
+        <v>1</v>
+      </c>
+      <c r="BU28">
+        <v>1</v>
+      </c>
+      <c r="BV28">
+        <v>1</v>
+      </c>
+      <c r="BW28">
+        <v>1</v>
+      </c>
+      <c r="BX28">
+        <v>1</v>
+      </c>
+      <c r="BY28">
+        <v>1</v>
+      </c>
+      <c r="BZ28">
+        <v>0</v>
+      </c>
+      <c r="CA28">
+        <v>0</v>
+      </c>
+      <c r="CB28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:50">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -4682,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -4694,13 +7214,13 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -4799,13 +7319,13 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -4819,8 +7339,98 @@
       <c r="AX29">
         <v>0</v>
       </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>0</v>
+      </c>
+      <c r="BI29">
+        <v>0</v>
+      </c>
+      <c r="BJ29">
+        <v>0</v>
+      </c>
+      <c r="BK29">
+        <v>0</v>
+      </c>
+      <c r="BL29">
+        <v>0</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <v>0</v>
+      </c>
+      <c r="BO29">
+        <v>0</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
+      <c r="BQ29">
+        <v>0</v>
+      </c>
+      <c r="BR29">
+        <v>0</v>
+      </c>
+      <c r="BS29">
+        <v>1</v>
+      </c>
+      <c r="BT29">
+        <v>1</v>
+      </c>
+      <c r="BU29">
+        <v>1</v>
+      </c>
+      <c r="BV29">
+        <v>1</v>
+      </c>
+      <c r="BW29">
+        <v>1</v>
+      </c>
+      <c r="BX29">
+        <v>1</v>
+      </c>
+      <c r="BY29">
+        <v>1</v>
+      </c>
+      <c r="BZ29">
+        <v>0</v>
+      </c>
+      <c r="CA29">
+        <v>0</v>
+      </c>
+      <c r="CB29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:50">
+    <row r="30" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -4834,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -4846,13 +7456,13 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -4951,13 +7561,13 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -4971,8 +7581,98 @@
       <c r="AX30">
         <v>0</v>
       </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>0</v>
+      </c>
+      <c r="BG30">
+        <v>0</v>
+      </c>
+      <c r="BH30">
+        <v>0</v>
+      </c>
+      <c r="BI30">
+        <v>0</v>
+      </c>
+      <c r="BJ30">
+        <v>0</v>
+      </c>
+      <c r="BK30">
+        <v>0</v>
+      </c>
+      <c r="BL30">
+        <v>0</v>
+      </c>
+      <c r="BM30">
+        <v>0</v>
+      </c>
+      <c r="BN30">
+        <v>0</v>
+      </c>
+      <c r="BO30">
+        <v>0</v>
+      </c>
+      <c r="BP30">
+        <v>0</v>
+      </c>
+      <c r="BQ30">
+        <v>0</v>
+      </c>
+      <c r="BR30">
+        <v>0</v>
+      </c>
+      <c r="BS30">
+        <v>1</v>
+      </c>
+      <c r="BT30">
+        <v>1</v>
+      </c>
+      <c r="BU30">
+        <v>1</v>
+      </c>
+      <c r="BV30">
+        <v>1</v>
+      </c>
+      <c r="BW30">
+        <v>1</v>
+      </c>
+      <c r="BX30">
+        <v>1</v>
+      </c>
+      <c r="BY30">
+        <v>1</v>
+      </c>
+      <c r="BZ30">
+        <v>0</v>
+      </c>
+      <c r="CA30">
+        <v>0</v>
+      </c>
+      <c r="CB30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:50">
+    <row r="31" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -4986,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -4998,13 +7698,13 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -5103,13 +7803,13 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -5123,8 +7823,98 @@
       <c r="AX31">
         <v>0</v>
       </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>0</v>
+      </c>
+      <c r="BG31">
+        <v>0</v>
+      </c>
+      <c r="BH31">
+        <v>0</v>
+      </c>
+      <c r="BI31">
+        <v>0</v>
+      </c>
+      <c r="BJ31">
+        <v>0</v>
+      </c>
+      <c r="BK31">
+        <v>0</v>
+      </c>
+      <c r="BL31">
+        <v>0</v>
+      </c>
+      <c r="BM31">
+        <v>0</v>
+      </c>
+      <c r="BN31">
+        <v>0</v>
+      </c>
+      <c r="BO31">
+        <v>0</v>
+      </c>
+      <c r="BP31">
+        <v>0</v>
+      </c>
+      <c r="BQ31">
+        <v>0</v>
+      </c>
+      <c r="BR31">
+        <v>0</v>
+      </c>
+      <c r="BS31">
+        <v>1</v>
+      </c>
+      <c r="BT31">
+        <v>1</v>
+      </c>
+      <c r="BU31">
+        <v>1</v>
+      </c>
+      <c r="BV31">
+        <v>1</v>
+      </c>
+      <c r="BW31">
+        <v>1</v>
+      </c>
+      <c r="BX31">
+        <v>1</v>
+      </c>
+      <c r="BY31">
+        <v>1</v>
+      </c>
+      <c r="BZ31">
+        <v>0</v>
+      </c>
+      <c r="CA31">
+        <v>0</v>
+      </c>
+      <c r="CB31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:50">
+    <row r="32" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -5138,7 +7928,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -5150,13 +7940,13 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -5255,13 +8045,13 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -5275,8 +8065,98 @@
       <c r="AX32">
         <v>0</v>
       </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>0</v>
+      </c>
+      <c r="BH32">
+        <v>0</v>
+      </c>
+      <c r="BI32">
+        <v>0</v>
+      </c>
+      <c r="BJ32">
+        <v>0</v>
+      </c>
+      <c r="BK32">
+        <v>0</v>
+      </c>
+      <c r="BL32">
+        <v>0</v>
+      </c>
+      <c r="BM32">
+        <v>0</v>
+      </c>
+      <c r="BN32">
+        <v>0</v>
+      </c>
+      <c r="BO32">
+        <v>0</v>
+      </c>
+      <c r="BP32">
+        <v>0</v>
+      </c>
+      <c r="BQ32">
+        <v>0</v>
+      </c>
+      <c r="BR32">
+        <v>0</v>
+      </c>
+      <c r="BS32">
+        <v>1</v>
+      </c>
+      <c r="BT32">
+        <v>1</v>
+      </c>
+      <c r="BU32">
+        <v>1</v>
+      </c>
+      <c r="BV32">
+        <v>1</v>
+      </c>
+      <c r="BW32">
+        <v>1</v>
+      </c>
+      <c r="BX32">
+        <v>1</v>
+      </c>
+      <c r="BY32">
+        <v>1</v>
+      </c>
+      <c r="BZ32">
+        <v>0</v>
+      </c>
+      <c r="CA32">
+        <v>0</v>
+      </c>
+      <c r="CB32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:50">
+    <row r="33" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -5290,7 +8170,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -5302,13 +8182,13 @@
         <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -5407,13 +8287,13 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -5427,8 +8307,98 @@
       <c r="AX33">
         <v>0</v>
       </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>0</v>
+      </c>
+      <c r="BG33">
+        <v>0</v>
+      </c>
+      <c r="BH33">
+        <v>0</v>
+      </c>
+      <c r="BI33">
+        <v>0</v>
+      </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
+      <c r="BK33">
+        <v>0</v>
+      </c>
+      <c r="BL33">
+        <v>0</v>
+      </c>
+      <c r="BM33">
+        <v>0</v>
+      </c>
+      <c r="BN33">
+        <v>0</v>
+      </c>
+      <c r="BO33">
+        <v>0</v>
+      </c>
+      <c r="BP33">
+        <v>0</v>
+      </c>
+      <c r="BQ33">
+        <v>0</v>
+      </c>
+      <c r="BR33">
+        <v>0</v>
+      </c>
+      <c r="BS33">
+        <v>1</v>
+      </c>
+      <c r="BT33">
+        <v>1</v>
+      </c>
+      <c r="BU33">
+        <v>1</v>
+      </c>
+      <c r="BV33">
+        <v>1</v>
+      </c>
+      <c r="BW33">
+        <v>1</v>
+      </c>
+      <c r="BX33">
+        <v>1</v>
+      </c>
+      <c r="BY33">
+        <v>1</v>
+      </c>
+      <c r="BZ33">
+        <v>0</v>
+      </c>
+      <c r="CA33">
+        <v>0</v>
+      </c>
+      <c r="CB33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:50">
+    <row r="34" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -5442,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -5454,13 +8424,13 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -5559,13 +8529,13 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -5579,8 +8549,98 @@
       <c r="AX34">
         <v>0</v>
       </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>0</v>
+      </c>
+      <c r="BG34">
+        <v>0</v>
+      </c>
+      <c r="BH34">
+        <v>0</v>
+      </c>
+      <c r="BI34">
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <v>0</v>
+      </c>
+      <c r="BK34">
+        <v>0</v>
+      </c>
+      <c r="BL34">
+        <v>0</v>
+      </c>
+      <c r="BM34">
+        <v>0</v>
+      </c>
+      <c r="BN34">
+        <v>0</v>
+      </c>
+      <c r="BO34">
+        <v>0</v>
+      </c>
+      <c r="BP34">
+        <v>0</v>
+      </c>
+      <c r="BQ34">
+        <v>0</v>
+      </c>
+      <c r="BR34">
+        <v>0</v>
+      </c>
+      <c r="BS34">
+        <v>1</v>
+      </c>
+      <c r="BT34">
+        <v>1</v>
+      </c>
+      <c r="BU34">
+        <v>1</v>
+      </c>
+      <c r="BV34">
+        <v>1</v>
+      </c>
+      <c r="BW34">
+        <v>1</v>
+      </c>
+      <c r="BX34">
+        <v>1</v>
+      </c>
+      <c r="BY34">
+        <v>1</v>
+      </c>
+      <c r="BZ34">
+        <v>0</v>
+      </c>
+      <c r="CA34">
+        <v>0</v>
+      </c>
+      <c r="CB34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:50">
+    <row r="35" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -5594,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -5606,13 +8666,13 @@
         <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -5711,13 +8771,13 @@
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -5731,8 +8791,98 @@
       <c r="AX35">
         <v>0</v>
       </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>0</v>
+      </c>
+      <c r="BF35">
+        <v>0</v>
+      </c>
+      <c r="BG35">
+        <v>0</v>
+      </c>
+      <c r="BH35">
+        <v>0</v>
+      </c>
+      <c r="BI35">
+        <v>0</v>
+      </c>
+      <c r="BJ35">
+        <v>0</v>
+      </c>
+      <c r="BK35">
+        <v>0</v>
+      </c>
+      <c r="BL35">
+        <v>0</v>
+      </c>
+      <c r="BM35">
+        <v>0</v>
+      </c>
+      <c r="BN35">
+        <v>0</v>
+      </c>
+      <c r="BO35">
+        <v>0</v>
+      </c>
+      <c r="BP35">
+        <v>0</v>
+      </c>
+      <c r="BQ35">
+        <v>0</v>
+      </c>
+      <c r="BR35">
+        <v>0</v>
+      </c>
+      <c r="BS35">
+        <v>1</v>
+      </c>
+      <c r="BT35">
+        <v>1</v>
+      </c>
+      <c r="BU35">
+        <v>1</v>
+      </c>
+      <c r="BV35">
+        <v>1</v>
+      </c>
+      <c r="BW35">
+        <v>1</v>
+      </c>
+      <c r="BX35">
+        <v>1</v>
+      </c>
+      <c r="BY35">
+        <v>1</v>
+      </c>
+      <c r="BZ35">
+        <v>0</v>
+      </c>
+      <c r="CA35">
+        <v>0</v>
+      </c>
+      <c r="CB35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:50">
+    <row r="36" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -5746,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -5758,13 +8908,13 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -5863,13 +9013,13 @@
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -5883,8 +9033,98 @@
       <c r="AX36">
         <v>0</v>
       </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36">
+        <v>0</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>0</v>
+      </c>
+      <c r="BF36">
+        <v>0</v>
+      </c>
+      <c r="BG36">
+        <v>0</v>
+      </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
+      <c r="BI36">
+        <v>0</v>
+      </c>
+      <c r="BJ36">
+        <v>0</v>
+      </c>
+      <c r="BK36">
+        <v>0</v>
+      </c>
+      <c r="BL36">
+        <v>0</v>
+      </c>
+      <c r="BM36">
+        <v>0</v>
+      </c>
+      <c r="BN36">
+        <v>0</v>
+      </c>
+      <c r="BO36">
+        <v>0</v>
+      </c>
+      <c r="BP36">
+        <v>0</v>
+      </c>
+      <c r="BQ36">
+        <v>0</v>
+      </c>
+      <c r="BR36">
+        <v>0</v>
+      </c>
+      <c r="BS36">
+        <v>1</v>
+      </c>
+      <c r="BT36">
+        <v>1</v>
+      </c>
+      <c r="BU36">
+        <v>1</v>
+      </c>
+      <c r="BV36">
+        <v>1</v>
+      </c>
+      <c r="BW36">
+        <v>1</v>
+      </c>
+      <c r="BX36">
+        <v>1</v>
+      </c>
+      <c r="BY36">
+        <v>1</v>
+      </c>
+      <c r="BZ36">
+        <v>0</v>
+      </c>
+      <c r="CA36">
+        <v>0</v>
+      </c>
+      <c r="CB36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:50">
+    <row r="37" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -5898,7 +9138,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -5910,13 +9150,13 @@
         <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -6015,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -6035,8 +9275,98 @@
       <c r="AX37">
         <v>0</v>
       </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BC37">
+        <v>0</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>0</v>
+      </c>
+      <c r="BF37">
+        <v>0</v>
+      </c>
+      <c r="BG37">
+        <v>0</v>
+      </c>
+      <c r="BH37">
+        <v>0</v>
+      </c>
+      <c r="BI37">
+        <v>0</v>
+      </c>
+      <c r="BJ37">
+        <v>0</v>
+      </c>
+      <c r="BK37">
+        <v>0</v>
+      </c>
+      <c r="BL37">
+        <v>0</v>
+      </c>
+      <c r="BM37">
+        <v>0</v>
+      </c>
+      <c r="BN37">
+        <v>0</v>
+      </c>
+      <c r="BO37">
+        <v>0</v>
+      </c>
+      <c r="BP37">
+        <v>0</v>
+      </c>
+      <c r="BQ37">
+        <v>0</v>
+      </c>
+      <c r="BR37">
+        <v>0</v>
+      </c>
+      <c r="BS37">
+        <v>1</v>
+      </c>
+      <c r="BT37">
+        <v>1</v>
+      </c>
+      <c r="BU37">
+        <v>1</v>
+      </c>
+      <c r="BV37">
+        <v>1</v>
+      </c>
+      <c r="BW37">
+        <v>1</v>
+      </c>
+      <c r="BX37">
+        <v>1</v>
+      </c>
+      <c r="BY37">
+        <v>1</v>
+      </c>
+      <c r="BZ37">
+        <v>0</v>
+      </c>
+      <c r="CA37">
+        <v>0</v>
+      </c>
+      <c r="CB37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:50">
+    <row r="38" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -6050,7 +9380,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -6062,13 +9392,13 @@
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -6167,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="AR38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU38">
         <v>0</v>
@@ -6187,8 +9517,98 @@
       <c r="AX38">
         <v>0</v>
       </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
+        <v>0</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38">
+        <v>0</v>
+      </c>
+      <c r="BF38">
+        <v>0</v>
+      </c>
+      <c r="BG38">
+        <v>0</v>
+      </c>
+      <c r="BH38">
+        <v>0</v>
+      </c>
+      <c r="BI38">
+        <v>0</v>
+      </c>
+      <c r="BJ38">
+        <v>0</v>
+      </c>
+      <c r="BK38">
+        <v>0</v>
+      </c>
+      <c r="BL38">
+        <v>0</v>
+      </c>
+      <c r="BM38">
+        <v>0</v>
+      </c>
+      <c r="BN38">
+        <v>0</v>
+      </c>
+      <c r="BO38">
+        <v>0</v>
+      </c>
+      <c r="BP38">
+        <v>0</v>
+      </c>
+      <c r="BQ38">
+        <v>0</v>
+      </c>
+      <c r="BR38">
+        <v>0</v>
+      </c>
+      <c r="BS38">
+        <v>1</v>
+      </c>
+      <c r="BT38">
+        <v>1</v>
+      </c>
+      <c r="BU38">
+        <v>1</v>
+      </c>
+      <c r="BV38">
+        <v>1</v>
+      </c>
+      <c r="BW38">
+        <v>1</v>
+      </c>
+      <c r="BX38">
+        <v>1</v>
+      </c>
+      <c r="BY38">
+        <v>1</v>
+      </c>
+      <c r="BZ38">
+        <v>0</v>
+      </c>
+      <c r="CA38">
+        <v>0</v>
+      </c>
+      <c r="CB38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:50">
+    <row r="39" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -6202,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -6214,13 +9634,13 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -6319,13 +9739,13 @@
         <v>0</v>
       </c>
       <c r="AR39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -6339,8 +9759,98 @@
       <c r="AX39">
         <v>0</v>
       </c>
+      <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
+        <v>0</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BE39">
+        <v>0</v>
+      </c>
+      <c r="BF39">
+        <v>0</v>
+      </c>
+      <c r="BG39">
+        <v>0</v>
+      </c>
+      <c r="BH39">
+        <v>0</v>
+      </c>
+      <c r="BI39">
+        <v>0</v>
+      </c>
+      <c r="BJ39">
+        <v>0</v>
+      </c>
+      <c r="BK39">
+        <v>0</v>
+      </c>
+      <c r="BL39">
+        <v>0</v>
+      </c>
+      <c r="BM39">
+        <v>0</v>
+      </c>
+      <c r="BN39">
+        <v>0</v>
+      </c>
+      <c r="BO39">
+        <v>0</v>
+      </c>
+      <c r="BP39">
+        <v>0</v>
+      </c>
+      <c r="BQ39">
+        <v>0</v>
+      </c>
+      <c r="BR39">
+        <v>0</v>
+      </c>
+      <c r="BS39">
+        <v>1</v>
+      </c>
+      <c r="BT39">
+        <v>1</v>
+      </c>
+      <c r="BU39">
+        <v>1</v>
+      </c>
+      <c r="BV39">
+        <v>1</v>
+      </c>
+      <c r="BW39">
+        <v>1</v>
+      </c>
+      <c r="BX39">
+        <v>1</v>
+      </c>
+      <c r="BY39">
+        <v>1</v>
+      </c>
+      <c r="BZ39">
+        <v>0</v>
+      </c>
+      <c r="CA39">
+        <v>0</v>
+      </c>
+      <c r="CB39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:50">
+    <row r="40" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0</v>
       </c>
@@ -6354,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -6366,13 +9876,13 @@
         <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -6471,13 +9981,13 @@
         <v>0</v>
       </c>
       <c r="AR40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU40">
         <v>0</v>
@@ -6491,8 +10001,98 @@
       <c r="AX40">
         <v>0</v>
       </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>0</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BF40">
+        <v>0</v>
+      </c>
+      <c r="BG40">
+        <v>0</v>
+      </c>
+      <c r="BH40">
+        <v>0</v>
+      </c>
+      <c r="BI40">
+        <v>0</v>
+      </c>
+      <c r="BJ40">
+        <v>0</v>
+      </c>
+      <c r="BK40">
+        <v>0</v>
+      </c>
+      <c r="BL40">
+        <v>0</v>
+      </c>
+      <c r="BM40">
+        <v>0</v>
+      </c>
+      <c r="BN40">
+        <v>0</v>
+      </c>
+      <c r="BO40">
+        <v>0</v>
+      </c>
+      <c r="BP40">
+        <v>0</v>
+      </c>
+      <c r="BQ40">
+        <v>0</v>
+      </c>
+      <c r="BR40">
+        <v>0</v>
+      </c>
+      <c r="BS40">
+        <v>1</v>
+      </c>
+      <c r="BT40">
+        <v>1</v>
+      </c>
+      <c r="BU40">
+        <v>1</v>
+      </c>
+      <c r="BV40">
+        <v>1</v>
+      </c>
+      <c r="BW40">
+        <v>1</v>
+      </c>
+      <c r="BX40">
+        <v>1</v>
+      </c>
+      <c r="BY40">
+        <v>1</v>
+      </c>
+      <c r="BZ40">
+        <v>0</v>
+      </c>
+      <c r="CA40">
+        <v>0</v>
+      </c>
+      <c r="CB40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:50">
+    <row r="41" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -6506,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -6518,13 +10118,13 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -6623,13 +10223,13 @@
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -6643,8 +10243,98 @@
       <c r="AX41">
         <v>0</v>
       </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>0</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BE41">
+        <v>0</v>
+      </c>
+      <c r="BF41">
+        <v>0</v>
+      </c>
+      <c r="BG41">
+        <v>0</v>
+      </c>
+      <c r="BH41">
+        <v>0</v>
+      </c>
+      <c r="BI41">
+        <v>0</v>
+      </c>
+      <c r="BJ41">
+        <v>0</v>
+      </c>
+      <c r="BK41">
+        <v>0</v>
+      </c>
+      <c r="BL41">
+        <v>0</v>
+      </c>
+      <c r="BM41">
+        <v>0</v>
+      </c>
+      <c r="BN41">
+        <v>0</v>
+      </c>
+      <c r="BO41">
+        <v>0</v>
+      </c>
+      <c r="BP41">
+        <v>0</v>
+      </c>
+      <c r="BQ41">
+        <v>0</v>
+      </c>
+      <c r="BR41">
+        <v>0</v>
+      </c>
+      <c r="BS41">
+        <v>1</v>
+      </c>
+      <c r="BT41">
+        <v>1</v>
+      </c>
+      <c r="BU41">
+        <v>1</v>
+      </c>
+      <c r="BV41">
+        <v>1</v>
+      </c>
+      <c r="BW41">
+        <v>1</v>
+      </c>
+      <c r="BX41">
+        <v>1</v>
+      </c>
+      <c r="BY41">
+        <v>1</v>
+      </c>
+      <c r="BZ41">
+        <v>0</v>
+      </c>
+      <c r="CA41">
+        <v>0</v>
+      </c>
+      <c r="CB41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:50">
+    <row r="42" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -6658,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -6670,13 +10360,13 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -6775,13 +10465,13 @@
         <v>0</v>
       </c>
       <c r="AR42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -6795,8 +10485,98 @@
       <c r="AX42">
         <v>0</v>
       </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42">
+        <v>0</v>
+      </c>
+      <c r="BD42">
+        <v>0</v>
+      </c>
+      <c r="BE42">
+        <v>0</v>
+      </c>
+      <c r="BF42">
+        <v>0</v>
+      </c>
+      <c r="BG42">
+        <v>0</v>
+      </c>
+      <c r="BH42">
+        <v>0</v>
+      </c>
+      <c r="BI42">
+        <v>0</v>
+      </c>
+      <c r="BJ42">
+        <v>0</v>
+      </c>
+      <c r="BK42">
+        <v>0</v>
+      </c>
+      <c r="BL42">
+        <v>0</v>
+      </c>
+      <c r="BM42">
+        <v>0</v>
+      </c>
+      <c r="BN42">
+        <v>0</v>
+      </c>
+      <c r="BO42">
+        <v>0</v>
+      </c>
+      <c r="BP42">
+        <v>0</v>
+      </c>
+      <c r="BQ42">
+        <v>0</v>
+      </c>
+      <c r="BR42">
+        <v>0</v>
+      </c>
+      <c r="BS42">
+        <v>1</v>
+      </c>
+      <c r="BT42">
+        <v>1</v>
+      </c>
+      <c r="BU42">
+        <v>1</v>
+      </c>
+      <c r="BV42">
+        <v>1</v>
+      </c>
+      <c r="BW42">
+        <v>1</v>
+      </c>
+      <c r="BX42">
+        <v>1</v>
+      </c>
+      <c r="BY42">
+        <v>1</v>
+      </c>
+      <c r="BZ42">
+        <v>0</v>
+      </c>
+      <c r="CA42">
+        <v>0</v>
+      </c>
+      <c r="CB42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:50">
+    <row r="43" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0</v>
       </c>
@@ -6810,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -6822,16 +10602,16 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -6927,13 +10707,13 @@
         <v>0</v>
       </c>
       <c r="AR43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU43">
         <v>0</v>
@@ -6947,8 +10727,98 @@
       <c r="AX43">
         <v>0</v>
       </c>
+      <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43">
+        <v>0</v>
+      </c>
+      <c r="BD43">
+        <v>0</v>
+      </c>
+      <c r="BE43">
+        <v>0</v>
+      </c>
+      <c r="BF43">
+        <v>0</v>
+      </c>
+      <c r="BG43">
+        <v>0</v>
+      </c>
+      <c r="BH43">
+        <v>0</v>
+      </c>
+      <c r="BI43">
+        <v>0</v>
+      </c>
+      <c r="BJ43">
+        <v>0</v>
+      </c>
+      <c r="BK43">
+        <v>0</v>
+      </c>
+      <c r="BL43">
+        <v>0</v>
+      </c>
+      <c r="BM43">
+        <v>0</v>
+      </c>
+      <c r="BN43">
+        <v>0</v>
+      </c>
+      <c r="BO43">
+        <v>0</v>
+      </c>
+      <c r="BP43">
+        <v>0</v>
+      </c>
+      <c r="BQ43">
+        <v>0</v>
+      </c>
+      <c r="BR43">
+        <v>1</v>
+      </c>
+      <c r="BS43">
+        <v>1</v>
+      </c>
+      <c r="BT43">
+        <v>1</v>
+      </c>
+      <c r="BU43">
+        <v>1</v>
+      </c>
+      <c r="BV43">
+        <v>1</v>
+      </c>
+      <c r="BW43">
+        <v>1</v>
+      </c>
+      <c r="BX43">
+        <v>1</v>
+      </c>
+      <c r="BY43">
+        <v>1</v>
+      </c>
+      <c r="BZ43">
+        <v>0</v>
+      </c>
+      <c r="CA43">
+        <v>0</v>
+      </c>
+      <c r="CB43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:50">
+    <row r="44" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0</v>
       </c>
@@ -6962,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -6974,109 +10844,109 @@
         <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1</v>
@@ -7088,19 +10958,109 @@
         <v>1</v>
       </c>
       <c r="AU44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX44">
+        <v>1</v>
+      </c>
+      <c r="AY44">
+        <v>1</v>
+      </c>
+      <c r="AZ44">
+        <v>1</v>
+      </c>
+      <c r="BA44">
+        <v>1</v>
+      </c>
+      <c r="BB44">
+        <v>1</v>
+      </c>
+      <c r="BC44">
+        <v>1</v>
+      </c>
+      <c r="BD44">
+        <v>1</v>
+      </c>
+      <c r="BE44">
+        <v>1</v>
+      </c>
+      <c r="BF44">
+        <v>1</v>
+      </c>
+      <c r="BG44">
+        <v>1</v>
+      </c>
+      <c r="BH44">
+        <v>1</v>
+      </c>
+      <c r="BI44">
+        <v>1</v>
+      </c>
+      <c r="BJ44">
+        <v>1</v>
+      </c>
+      <c r="BK44">
+        <v>1</v>
+      </c>
+      <c r="BL44">
+        <v>1</v>
+      </c>
+      <c r="BM44">
+        <v>1</v>
+      </c>
+      <c r="BN44">
+        <v>1</v>
+      </c>
+      <c r="BO44">
+        <v>1</v>
+      </c>
+      <c r="BP44">
+        <v>1</v>
+      </c>
+      <c r="BQ44">
+        <v>1</v>
+      </c>
+      <c r="BR44">
+        <v>1</v>
+      </c>
+      <c r="BS44">
+        <v>1</v>
+      </c>
+      <c r="BT44">
+        <v>1</v>
+      </c>
+      <c r="BU44">
+        <v>1</v>
+      </c>
+      <c r="BV44">
+        <v>1</v>
+      </c>
+      <c r="BW44">
+        <v>1</v>
+      </c>
+      <c r="BX44">
+        <v>1</v>
+      </c>
+      <c r="BY44">
+        <v>1</v>
+      </c>
+      <c r="BZ44">
+        <v>0</v>
+      </c>
+      <c r="CA44">
+        <v>0</v>
+      </c>
+      <c r="CB44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:50">
+    <row r="45" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
@@ -7114,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -7126,109 +11086,109 @@
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1</v>
@@ -7240,19 +11200,109 @@
         <v>1</v>
       </c>
       <c r="AU45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX45">
+        <v>1</v>
+      </c>
+      <c r="AY45">
+        <v>1</v>
+      </c>
+      <c r="AZ45">
+        <v>1</v>
+      </c>
+      <c r="BA45">
+        <v>1</v>
+      </c>
+      <c r="BB45">
+        <v>1</v>
+      </c>
+      <c r="BC45">
+        <v>1</v>
+      </c>
+      <c r="BD45">
+        <v>1</v>
+      </c>
+      <c r="BE45">
+        <v>1</v>
+      </c>
+      <c r="BF45">
+        <v>1</v>
+      </c>
+      <c r="BG45">
+        <v>1</v>
+      </c>
+      <c r="BH45">
+        <v>1</v>
+      </c>
+      <c r="BI45">
+        <v>1</v>
+      </c>
+      <c r="BJ45">
+        <v>1</v>
+      </c>
+      <c r="BK45">
+        <v>1</v>
+      </c>
+      <c r="BL45">
+        <v>1</v>
+      </c>
+      <c r="BM45">
+        <v>1</v>
+      </c>
+      <c r="BN45">
+        <v>1</v>
+      </c>
+      <c r="BO45">
+        <v>1</v>
+      </c>
+      <c r="BP45">
+        <v>1</v>
+      </c>
+      <c r="BQ45">
+        <v>1</v>
+      </c>
+      <c r="BR45">
+        <v>1</v>
+      </c>
+      <c r="BS45">
+        <v>1</v>
+      </c>
+      <c r="BT45">
+        <v>1</v>
+      </c>
+      <c r="BU45">
+        <v>1</v>
+      </c>
+      <c r="BV45">
+        <v>1</v>
+      </c>
+      <c r="BW45">
+        <v>1</v>
+      </c>
+      <c r="BX45">
+        <v>1</v>
+      </c>
+      <c r="BY45">
+        <v>1</v>
+      </c>
+      <c r="BZ45">
+        <v>0</v>
+      </c>
+      <c r="CA45">
+        <v>0</v>
+      </c>
+      <c r="CB45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:50">
+    <row r="46" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0</v>
       </c>
@@ -7281,103 +11331,103 @@
         <v>1</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -7392,19 +11442,109 @@
         <v>1</v>
       </c>
       <c r="AU46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX46">
+        <v>1</v>
+      </c>
+      <c r="AY46">
+        <v>1</v>
+      </c>
+      <c r="AZ46">
+        <v>1</v>
+      </c>
+      <c r="BA46">
+        <v>1</v>
+      </c>
+      <c r="BB46">
+        <v>1</v>
+      </c>
+      <c r="BC46">
+        <v>1</v>
+      </c>
+      <c r="BD46">
+        <v>1</v>
+      </c>
+      <c r="BE46">
+        <v>1</v>
+      </c>
+      <c r="BF46">
+        <v>1</v>
+      </c>
+      <c r="BG46">
+        <v>1</v>
+      </c>
+      <c r="BH46">
+        <v>1</v>
+      </c>
+      <c r="BI46">
+        <v>1</v>
+      </c>
+      <c r="BJ46">
+        <v>1</v>
+      </c>
+      <c r="BK46">
+        <v>1</v>
+      </c>
+      <c r="BL46">
+        <v>1</v>
+      </c>
+      <c r="BM46">
+        <v>1</v>
+      </c>
+      <c r="BN46">
+        <v>1</v>
+      </c>
+      <c r="BO46">
+        <v>1</v>
+      </c>
+      <c r="BP46">
+        <v>1</v>
+      </c>
+      <c r="BQ46">
+        <v>1</v>
+      </c>
+      <c r="BR46">
+        <v>1</v>
+      </c>
+      <c r="BS46">
+        <v>1</v>
+      </c>
+      <c r="BT46">
+        <v>1</v>
+      </c>
+      <c r="BU46">
+        <v>1</v>
+      </c>
+      <c r="BV46">
+        <v>1</v>
+      </c>
+      <c r="BW46">
+        <v>1</v>
+      </c>
+      <c r="BX46">
+        <v>1</v>
+      </c>
+      <c r="BY46">
+        <v>0</v>
+      </c>
+      <c r="BZ46">
+        <v>0</v>
+      </c>
+      <c r="CA46">
+        <v>0</v>
+      </c>
+      <c r="CB46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:50">
+    <row r="47" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -7541,22 +11681,112 @@
         <v>1</v>
       </c>
       <c r="AT47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX47">
+        <v>1</v>
+      </c>
+      <c r="AY47">
+        <v>1</v>
+      </c>
+      <c r="AZ47">
+        <v>1</v>
+      </c>
+      <c r="BA47">
+        <v>1</v>
+      </c>
+      <c r="BB47">
+        <v>1</v>
+      </c>
+      <c r="BC47">
+        <v>1</v>
+      </c>
+      <c r="BD47">
+        <v>1</v>
+      </c>
+      <c r="BE47">
+        <v>1</v>
+      </c>
+      <c r="BF47">
+        <v>1</v>
+      </c>
+      <c r="BG47">
+        <v>1</v>
+      </c>
+      <c r="BH47">
+        <v>1</v>
+      </c>
+      <c r="BI47">
+        <v>1</v>
+      </c>
+      <c r="BJ47">
+        <v>1</v>
+      </c>
+      <c r="BK47">
+        <v>1</v>
+      </c>
+      <c r="BL47">
+        <v>1</v>
+      </c>
+      <c r="BM47">
+        <v>1</v>
+      </c>
+      <c r="BN47">
+        <v>1</v>
+      </c>
+      <c r="BO47">
+        <v>1</v>
+      </c>
+      <c r="BP47">
+        <v>1</v>
+      </c>
+      <c r="BQ47">
+        <v>1</v>
+      </c>
+      <c r="BR47">
+        <v>1</v>
+      </c>
+      <c r="BS47">
+        <v>1</v>
+      </c>
+      <c r="BT47">
+        <v>1</v>
+      </c>
+      <c r="BU47">
+        <v>1</v>
+      </c>
+      <c r="BV47">
+        <v>1</v>
+      </c>
+      <c r="BW47">
+        <v>1</v>
+      </c>
+      <c r="BX47">
+        <v>0</v>
+      </c>
+      <c r="BY47">
+        <v>0</v>
+      </c>
+      <c r="BZ47">
+        <v>0</v>
+      </c>
+      <c r="CA47">
+        <v>0</v>
+      </c>
+      <c r="CB47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:50">
+    <row r="48" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -7690,25 +11920,115 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX48">
+        <v>1</v>
+      </c>
+      <c r="AY48">
+        <v>1</v>
+      </c>
+      <c r="AZ48">
+        <v>1</v>
+      </c>
+      <c r="BA48">
+        <v>1</v>
+      </c>
+      <c r="BB48">
+        <v>1</v>
+      </c>
+      <c r="BC48">
+        <v>1</v>
+      </c>
+      <c r="BD48">
+        <v>1</v>
+      </c>
+      <c r="BE48">
+        <v>1</v>
+      </c>
+      <c r="BF48">
+        <v>1</v>
+      </c>
+      <c r="BG48">
+        <v>1</v>
+      </c>
+      <c r="BH48">
+        <v>1</v>
+      </c>
+      <c r="BI48">
+        <v>1</v>
+      </c>
+      <c r="BJ48">
+        <v>1</v>
+      </c>
+      <c r="BK48">
+        <v>1</v>
+      </c>
+      <c r="BL48">
+        <v>1</v>
+      </c>
+      <c r="BM48">
+        <v>1</v>
+      </c>
+      <c r="BN48">
+        <v>1</v>
+      </c>
+      <c r="BO48">
+        <v>1</v>
+      </c>
+      <c r="BP48">
+        <v>1</v>
+      </c>
+      <c r="BQ48">
+        <v>1</v>
+      </c>
+      <c r="BR48">
+        <v>1</v>
+      </c>
+      <c r="BS48">
+        <v>1</v>
+      </c>
+      <c r="BT48">
+        <v>1</v>
+      </c>
+      <c r="BU48">
+        <v>1</v>
+      </c>
+      <c r="BV48">
+        <v>1</v>
+      </c>
+      <c r="BW48">
+        <v>0</v>
+      </c>
+      <c r="BX48">
+        <v>0</v>
+      </c>
+      <c r="BY48">
+        <v>0</v>
+      </c>
+      <c r="BZ48">
+        <v>0</v>
+      </c>
+      <c r="CA48">
+        <v>0</v>
+      </c>
+      <c r="CB48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:50">
+    <row r="49" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0</v>
       </c>
@@ -7839,28 +12159,118 @@
         <v>1</v>
       </c>
       <c r="AR49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX49">
+        <v>1</v>
+      </c>
+      <c r="AY49">
+        <v>1</v>
+      </c>
+      <c r="AZ49">
+        <v>1</v>
+      </c>
+      <c r="BA49">
+        <v>1</v>
+      </c>
+      <c r="BB49">
+        <v>1</v>
+      </c>
+      <c r="BC49">
+        <v>1</v>
+      </c>
+      <c r="BD49">
+        <v>1</v>
+      </c>
+      <c r="BE49">
+        <v>1</v>
+      </c>
+      <c r="BF49">
+        <v>1</v>
+      </c>
+      <c r="BG49">
+        <v>1</v>
+      </c>
+      <c r="BH49">
+        <v>1</v>
+      </c>
+      <c r="BI49">
+        <v>1</v>
+      </c>
+      <c r="BJ49">
+        <v>1</v>
+      </c>
+      <c r="BK49">
+        <v>1</v>
+      </c>
+      <c r="BL49">
+        <v>1</v>
+      </c>
+      <c r="BM49">
+        <v>1</v>
+      </c>
+      <c r="BN49">
+        <v>1</v>
+      </c>
+      <c r="BO49">
+        <v>1</v>
+      </c>
+      <c r="BP49">
+        <v>1</v>
+      </c>
+      <c r="BQ49">
+        <v>1</v>
+      </c>
+      <c r="BR49">
+        <v>1</v>
+      </c>
+      <c r="BS49">
+        <v>1</v>
+      </c>
+      <c r="BT49">
+        <v>1</v>
+      </c>
+      <c r="BU49">
+        <v>1</v>
+      </c>
+      <c r="BV49">
+        <v>0</v>
+      </c>
+      <c r="BW49">
+        <v>0</v>
+      </c>
+      <c r="BX49">
+        <v>0</v>
+      </c>
+      <c r="BY49">
+        <v>0</v>
+      </c>
+      <c r="BZ49">
+        <v>0</v>
+      </c>
+      <c r="CA49">
+        <v>0</v>
+      </c>
+      <c r="CB49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:50">
+    <row r="50" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -8009,11 +12419,101 @@
         <v>0</v>
       </c>
       <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BC50">
+        <v>0</v>
+      </c>
+      <c r="BD50">
+        <v>0</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+      <c r="BF50">
+        <v>0</v>
+      </c>
+      <c r="BG50">
+        <v>0</v>
+      </c>
+      <c r="BH50">
+        <v>0</v>
+      </c>
+      <c r="BI50">
+        <v>0</v>
+      </c>
+      <c r="BJ50">
+        <v>0</v>
+      </c>
+      <c r="BK50">
+        <v>0</v>
+      </c>
+      <c r="BL50">
+        <v>0</v>
+      </c>
+      <c r="BM50">
+        <v>0</v>
+      </c>
+      <c r="BN50">
+        <v>0</v>
+      </c>
+      <c r="BO50">
+        <v>0</v>
+      </c>
+      <c r="BP50">
+        <v>0</v>
+      </c>
+      <c r="BQ50">
+        <v>0</v>
+      </c>
+      <c r="BR50">
+        <v>0</v>
+      </c>
+      <c r="BS50">
+        <v>0</v>
+      </c>
+      <c r="BT50">
+        <v>0</v>
+      </c>
+      <c r="BU50">
+        <v>0</v>
+      </c>
+      <c r="BV50">
+        <v>0</v>
+      </c>
+      <c r="BW50">
+        <v>0</v>
+      </c>
+      <c r="BX50">
+        <v>0</v>
+      </c>
+      <c r="BY50">
+        <v>0</v>
+      </c>
+      <c r="BZ50">
+        <v>0</v>
+      </c>
+      <c r="CA50">
+        <v>0</v>
+      </c>
+      <c r="CB50">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AX50">
+  <conditionalFormatting sqref="A1:CB50">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
